--- a/Code/Results/Cases/Case_3_173/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_173/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.53553461889529</v>
+        <v>26.25523382790317</v>
       </c>
       <c r="C2">
-        <v>12.43099120523955</v>
+        <v>8.372093544870099</v>
       </c>
       <c r="D2">
-        <v>6.765157619915025</v>
+        <v>4.671133373143253</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>67.36924771117336</v>
+        <v>66.98012672441862</v>
       </c>
       <c r="G2">
-        <v>2.152581500202138</v>
+        <v>3.817106714637992</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.992147712253567</v>
+        <v>10.41291891820497</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.77260448081118</v>
+        <v>11.3833242719874</v>
       </c>
       <c r="M2">
-        <v>12.7499038831298</v>
+        <v>20.99770374164495</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.38069029726518</v>
+        <v>26.17659437665522</v>
       </c>
       <c r="C3">
-        <v>11.49218862876067</v>
+        <v>8.14090682226276</v>
       </c>
       <c r="D3">
-        <v>6.376840845284</v>
+        <v>4.508045296424766</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>64.37618990672739</v>
+        <v>66.22307749789003</v>
       </c>
       <c r="G3">
-        <v>2.167124958068185</v>
+        <v>3.821938050124239</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.96470829544344</v>
+        <v>10.40548065560088</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.822918814094381</v>
+        <v>11.42366828085592</v>
       </c>
       <c r="M3">
-        <v>12.44993562330604</v>
+        <v>21.04601027226497</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.66773869584133</v>
+        <v>26.13787959771213</v>
       </c>
       <c r="C4">
-        <v>10.89111491439948</v>
+        <v>8.000865743225051</v>
       </c>
       <c r="D4">
-        <v>6.13191732379927</v>
+        <v>4.404885251336276</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>62.51926010269552</v>
+        <v>65.76127142301665</v>
       </c>
       <c r="G4">
-        <v>2.17620343452601</v>
+        <v>3.825054301332016</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.948463845881664</v>
+        <v>10.40086469634724</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.857232070301618</v>
+        <v>11.45015295067449</v>
       </c>
       <c r="M4">
-        <v>12.27680757276382</v>
+        <v>21.08095969288446</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.37649427789239</v>
+        <v>26.12452046052153</v>
       </c>
       <c r="C5">
-        <v>10.63977088878968</v>
+        <v>7.944400363544128</v>
       </c>
       <c r="D5">
-        <v>6.030483288067642</v>
+        <v>4.362131572787106</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>61.75803206128801</v>
+        <v>65.57397218575311</v>
       </c>
       <c r="G5">
-        <v>2.179945437173833</v>
+        <v>3.82636202916249</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.941974920907048</v>
+        <v>10.39897091894476</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.872054977159496</v>
+        <v>11.46137736884005</v>
       </c>
       <c r="M5">
-        <v>12.20900579801572</v>
+        <v>21.09652917313276</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.32809978514883</v>
+        <v>26.12244844827935</v>
       </c>
       <c r="C6">
-        <v>10.5976431513694</v>
+        <v>7.935064351474429</v>
       </c>
       <c r="D6">
-        <v>6.013542681096371</v>
+        <v>4.354990571144456</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>61.63136994353855</v>
+        <v>65.54292880850015</v>
       </c>
       <c r="G6">
-        <v>2.180569496062573</v>
+        <v>3.82658146602233</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.940904768049752</v>
+        <v>10.39865567605124</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.874566494688718</v>
+        <v>11.46326727457559</v>
       </c>
       <c r="M6">
-        <v>12.19791256586261</v>
+        <v>21.09919455617031</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.66381333925113</v>
+        <v>26.13768963149429</v>
       </c>
       <c r="C7">
-        <v>10.88775137726496</v>
+        <v>8.000101627940301</v>
       </c>
       <c r="D7">
-        <v>6.130555906128706</v>
+        <v>4.404311492913549</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>62.50901167684457</v>
+        <v>65.75874166512615</v>
       </c>
       <c r="G7">
-        <v>2.176253722286131</v>
+        <v>3.825071784415504</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.94837583044766</v>
+        <v>10.40083920837755</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.857428601150671</v>
+        <v>11.45030257797431</v>
       </c>
       <c r="M7">
-        <v>12.27588208085773</v>
+        <v>21.08116429780328</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.13827819155396</v>
+        <v>26.22614024111531</v>
       </c>
       <c r="C8">
-        <v>12.1122777785967</v>
+        <v>8.292056867682833</v>
       </c>
       <c r="D8">
-        <v>6.632612117481053</v>
+        <v>4.615553783183287</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>66.34135973069525</v>
+        <v>66.71854689545448</v>
       </c>
       <c r="G8">
-        <v>2.15756841750131</v>
+        <v>3.818741568744097</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.982548076111621</v>
+        <v>10.41036406533936</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.789230326886161</v>
+        <v>11.39687982169001</v>
       </c>
       <c r="M8">
-        <v>12.64416124364081</v>
+        <v>21.01326058184637</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.9923055835531</v>
+        <v>26.47488899631536</v>
       </c>
       <c r="C9">
-        <v>14.32842140800892</v>
+        <v>8.874520544536379</v>
       </c>
       <c r="D9">
-        <v>7.566431217899863</v>
+        <v>5.004053319458113</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>73.69960829468374</v>
+        <v>68.61893146090921</v>
       </c>
       <c r="G9">
-        <v>2.121848324240379</v>
+        <v>3.807509084499478</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.055419394731903</v>
+        <v>10.42867583173773</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.683652208567349</v>
+        <v>11.30567295429397</v>
       </c>
       <c r="M9">
-        <v>13.45580767427328</v>
+        <v>20.92217611736386</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.12625940709978</v>
+        <v>26.70247326745446</v>
       </c>
       <c r="C10">
-        <v>15.86042018304383</v>
+        <v>9.30192017593766</v>
       </c>
       <c r="D10">
-        <v>8.224480029690225</v>
+        <v>5.271735401615669</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>79.01808395457182</v>
+        <v>70.01841300489924</v>
       </c>
       <c r="G10">
-        <v>2.095749512701732</v>
+        <v>3.799966095488647</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.114262748828329</v>
+        <v>10.44193588648783</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.624887954387227</v>
+        <v>11.24687344269521</v>
       </c>
       <c r="M10">
-        <v>14.11020395305856</v>
+        <v>20.88103898717566</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.18198985112579</v>
+        <v>26.81544633494963</v>
       </c>
       <c r="C11">
-        <v>16.54095800238867</v>
+        <v>9.494975631217434</v>
       </c>
       <c r="D11">
-        <v>8.518908864550593</v>
+        <v>5.389302274004</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.42486990518269</v>
+        <v>70.6541117059277</v>
       </c>
       <c r="G11">
-        <v>2.08379483236751</v>
+        <v>3.796686409461179</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.142655578960571</v>
+        <v>10.44793264035041</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.602676731923729</v>
+        <v>11.221895683884</v>
       </c>
       <c r="M11">
-        <v>14.42177426651522</v>
+        <v>20.86794497122417</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.57953308634478</v>
+        <v>26.85955493891611</v>
       </c>
       <c r="C12">
-        <v>16.79675579766247</v>
+        <v>9.567788852125776</v>
       </c>
       <c r="D12">
-        <v>8.629828573559189</v>
+        <v>5.433192509071864</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.33530984727844</v>
+        <v>70.89456022584753</v>
       </c>
       <c r="G12">
-        <v>2.079244644243107</v>
+        <v>3.795466111174929</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.153688793036969</v>
+        <v>10.45019888203991</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.59496001345789</v>
+        <v>11.2126910050112</v>
       </c>
       <c r="M12">
-        <v>14.54190622748807</v>
+        <v>20.86379584135911</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.49400562768869</v>
+        <v>26.84999679596218</v>
       </c>
       <c r="C13">
-        <v>16.74174200044899</v>
+        <v>9.552121676083067</v>
       </c>
       <c r="D13">
-        <v>8.605963053940823</v>
+        <v>5.423768341536711</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.13925593001818</v>
+        <v>70.84278989653447</v>
       </c>
       <c r="G13">
-        <v>2.080225844419791</v>
+        <v>3.795727964015219</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.151299218594994</v>
+        <v>10.44971100324435</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.596590293214729</v>
+        <v>11.21466211843653</v>
       </c>
       <c r="M13">
-        <v>14.51593523205166</v>
+        <v>20.86465342188553</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.21473765235218</v>
+        <v>26.81904873882218</v>
       </c>
       <c r="C14">
-        <v>16.56203801535288</v>
+        <v>9.500972403569049</v>
       </c>
       <c r="D14">
-        <v>8.528044910005731</v>
+        <v>5.392925905835185</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.49978552751541</v>
+        <v>70.67389990813852</v>
       </c>
       <c r="G14">
-        <v>2.083421023360285</v>
+        <v>3.796585581855537</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.143557341951555</v>
+        <v>10.44811917483536</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.602027682141192</v>
+        <v>11.2211333258881</v>
       </c>
       <c r="M14">
-        <v>14.43161352437386</v>
+        <v>20.86758739480001</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.04340271258561</v>
+        <v>26.80026419254239</v>
       </c>
       <c r="C15">
-        <v>16.45173040166717</v>
+        <v>9.46960118080082</v>
       </c>
       <c r="D15">
-        <v>8.480247598388528</v>
+        <v>5.373951308472477</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.10799741488488</v>
+        <v>70.57040966515444</v>
       </c>
       <c r="G15">
-        <v>2.085374767383493</v>
+        <v>3.797113711942109</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.138853441758529</v>
+        <v>10.4471435493103</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.605450073864696</v>
+        <v>11.22513016545976</v>
       </c>
       <c r="M15">
-        <v>14.38024896776648</v>
+        <v>20.86948996109857</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.05692286373584</v>
+        <v>26.69527775663207</v>
       </c>
       <c r="C16">
-        <v>15.8156524534043</v>
+        <v>9.289267611669947</v>
       </c>
       <c r="D16">
-        <v>8.205150018268768</v>
+        <v>5.263965307835576</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.86060730593398</v>
+        <v>69.97683759819768</v>
       </c>
       <c r="G16">
-        <v>2.09652819624016</v>
+        <v>3.800183468696493</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.112443801724488</v>
+        <v>10.44154331486716</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.626434093495421</v>
+        <v>11.24854136091173</v>
       </c>
       <c r="M16">
-        <v>14.0901332548363</v>
+        <v>20.88200790249292</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.46469673429845</v>
+        <v>26.63327041175279</v>
       </c>
       <c r="C17">
-        <v>15.42154016841254</v>
+        <v>9.178217182755082</v>
       </c>
       <c r="D17">
-        <v>8.035210488818461</v>
+        <v>5.195396832946585</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>77.47919077972165</v>
+        <v>69.61235947637782</v>
       </c>
       <c r="G17">
-        <v>2.103341910752218</v>
+        <v>3.802105393918765</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.096689923153779</v>
+        <v>10.43809904859986</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.640494260439817</v>
+        <v>11.2633562977504</v>
       </c>
       <c r="M17">
-        <v>13.91580495942433</v>
+        <v>20.89112751820399</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.15442463759442</v>
+        <v>26.59849629561436</v>
       </c>
       <c r="C18">
-        <v>15.19328496014803</v>
+        <v>9.114220102415221</v>
       </c>
       <c r="D18">
-        <v>7.936992652538767</v>
+        <v>5.155563747412704</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>76.68338077200444</v>
+        <v>69.40264198308942</v>
       </c>
       <c r="G18">
-        <v>2.107254028895544</v>
+        <v>3.803225118793653</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.087778321917808</v>
+        <v>10.4361146453289</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.649003813387516</v>
+        <v>11.27204414201015</v>
       </c>
       <c r="M18">
-        <v>13.81683106636858</v>
+        <v>20.89690176179224</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.04930800619402</v>
+        <v>26.58687624916565</v>
       </c>
       <c r="C19">
-        <v>15.11571920608094</v>
+        <v>9.092533569170371</v>
       </c>
       <c r="D19">
-        <v>7.903653011214162</v>
+        <v>5.142010053642309</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>76.41369627120567</v>
+        <v>69.33162599611418</v>
       </c>
       <c r="G19">
-        <v>2.108577726738405</v>
+        <v>3.803606696631688</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.08478537976043</v>
+        <v>10.43544217014154</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.65195633728561</v>
+        <v>11.27501434745328</v>
       </c>
       <c r="M19">
-        <v>13.78353881110082</v>
+        <v>20.89894761419858</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.52209256772083</v>
+        <v>26.63977920553288</v>
       </c>
       <c r="C20">
-        <v>15.46365381403623</v>
+        <v>9.190052222228305</v>
       </c>
       <c r="D20">
-        <v>8.053348950100645</v>
+        <v>5.202737068354421</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.62636965120836</v>
+        <v>69.65116804304635</v>
       </c>
       <c r="G20">
-        <v>2.102617374768115</v>
+        <v>3.801899324488593</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.098351146281442</v>
+        <v>10.43846604012029</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.638953505526011</v>
+        <v>11.2617619765657</v>
       </c>
       <c r="M20">
-        <v>13.93422752214355</v>
+        <v>20.89010197230859</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.29682174810963</v>
+        <v>26.82810313905123</v>
       </c>
       <c r="C21">
-        <v>16.61486922829663</v>
+        <v>9.516004850191916</v>
       </c>
       <c r="D21">
-        <v>8.55094569764621</v>
+        <v>5.40200235535926</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.68763110717208</v>
+        <v>70.72351563129972</v>
       </c>
       <c r="G21">
-        <v>2.082483252724947</v>
+        <v>3.796333092475381</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.145823255180699</v>
+        <v>10.44858685441439</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.600411362064875</v>
+        <v>11.21922569155366</v>
       </c>
       <c r="M21">
-        <v>14.45632113492509</v>
+        <v>20.86670364408194</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.4503781549822</v>
+        <v>26.95890950077262</v>
       </c>
       <c r="C22">
-        <v>17.35640762578064</v>
+        <v>9.727289057722478</v>
       </c>
       <c r="D22">
-        <v>8.872896393887141</v>
+        <v>5.528553312915242</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.33694902303623</v>
+        <v>71.42267875862291</v>
       </c>
       <c r="G22">
-        <v>2.069182294611359</v>
+        <v>3.792821342570813</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.178518542652647</v>
+        <v>10.45517480944017</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.579294042183176</v>
+        <v>11.19290511040212</v>
       </c>
       <c r="M22">
-        <v>14.87965368518564</v>
+        <v>20.85612894440244</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.83567544287624</v>
+        <v>26.88839932891142</v>
       </c>
       <c r="C23">
-        <v>16.96145760066159</v>
+        <v>9.61471183610475</v>
       </c>
       <c r="D23">
-        <v>8.701309606180876</v>
+        <v>5.461355005830836</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.92304466377647</v>
+        <v>71.04972239975356</v>
       </c>
       <c r="G23">
-        <v>2.076298595097144</v>
+        <v>3.794684144046796</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.160897496498754</v>
+        <v>10.45166096748518</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.590175630198553</v>
+        <v>11.20681777767963</v>
       </c>
       <c r="M23">
-        <v>14.62009225448165</v>
+        <v>20.86134090705263</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.49614538752604</v>
+        <v>26.63683385303719</v>
       </c>
       <c r="C24">
-        <v>15.44461948407461</v>
+        <v>9.184702069197327</v>
       </c>
       <c r="D24">
-        <v>8.045150172673095</v>
+        <v>5.199419829738599</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>77.55983517498956</v>
+        <v>69.63362322170194</v>
       </c>
       <c r="G24">
-        <v>2.102944952783834</v>
+        <v>3.801992442415826</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.097599657538678</v>
+        <v>10.43830013652401</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.639648756638922</v>
+        <v>11.2624822379247</v>
       </c>
       <c r="M24">
-        <v>13.92589479951262</v>
+        <v>20.89056396696354</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.22475041701389</v>
+        <v>26.39963299128502</v>
       </c>
       <c r="C25">
-        <v>13.74713478811282</v>
+        <v>8.716589762319558</v>
       </c>
       <c r="D25">
-        <v>7.319028846821752</v>
+        <v>4.9019378594465</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>71.7257329471705</v>
+        <v>68.10368316137379</v>
       </c>
       <c r="G25">
-        <v>2.131452339305299</v>
+        <v>3.810422413716425</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.034914825570139</v>
+        <v>10.42375816753531</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.709043942636645</v>
+        <v>11.32890123517879</v>
       </c>
       <c r="M25">
-        <v>13.22636121684451</v>
+        <v>20.94229748936642</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_173/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_173/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.25523382790317</v>
+        <v>21.53553461889519</v>
       </c>
       <c r="C2">
-        <v>8.372093544870099</v>
+        <v>12.43099120523962</v>
       </c>
       <c r="D2">
-        <v>4.671133373143253</v>
+        <v>6.765157619915146</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>66.98012672441862</v>
+        <v>67.3692477111736</v>
       </c>
       <c r="G2">
-        <v>3.817106714637992</v>
+        <v>2.1525815002024</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.41291891820497</v>
+        <v>6.992147712253597</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.3833242719874</v>
+        <v>5.772604480811106</v>
       </c>
       <c r="M2">
-        <v>20.99770374164495</v>
+        <v>12.74990388312967</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.17659437665522</v>
+        <v>20.38069029726508</v>
       </c>
       <c r="C3">
-        <v>8.14090682226276</v>
+        <v>11.49218862876056</v>
       </c>
       <c r="D3">
-        <v>4.508045296424766</v>
+        <v>6.376840845284068</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>66.22307749789003</v>
+        <v>64.37618990672735</v>
       </c>
       <c r="G3">
-        <v>3.821938050124239</v>
+        <v>2.167124958068053</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.40548065560088</v>
+        <v>6.964708295443447</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.42366828085592</v>
+        <v>5.822918814094438</v>
       </c>
       <c r="M3">
-        <v>21.04601027226497</v>
+        <v>12.44993562330598</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.13787959771213</v>
+        <v>19.6677386958412</v>
       </c>
       <c r="C4">
-        <v>8.000865743225051</v>
+        <v>10.89111491439931</v>
       </c>
       <c r="D4">
-        <v>4.404885251336276</v>
+        <v>6.13191732379925</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>65.76127142301665</v>
+        <v>62.5192601026954</v>
       </c>
       <c r="G4">
-        <v>3.825054301332016</v>
+        <v>2.176203434526017</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.40086469634724</v>
+        <v>6.948463845881668</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.45015295067449</v>
+        <v>5.857232070301585</v>
       </c>
       <c r="M4">
-        <v>21.08095969288446</v>
+        <v>12.27680757276373</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.12452046052153</v>
+        <v>19.37649427789248</v>
       </c>
       <c r="C5">
-        <v>7.944400363544128</v>
+        <v>10.63977088878969</v>
       </c>
       <c r="D5">
-        <v>4.362131572787106</v>
+        <v>6.03048328806768</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>65.57397218575311</v>
+        <v>61.75803206128784</v>
       </c>
       <c r="G5">
-        <v>3.82636202916249</v>
+        <v>2.179945437174104</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.39897091894476</v>
+        <v>6.941974920907256</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.46137736884005</v>
+        <v>5.872054977159525</v>
       </c>
       <c r="M5">
-        <v>21.09652917313276</v>
+        <v>12.20900579801578</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.12244844827935</v>
+        <v>19.32809978514892</v>
       </c>
       <c r="C6">
-        <v>7.935064351474429</v>
+        <v>10.59764315136931</v>
       </c>
       <c r="D6">
-        <v>4.354990571144456</v>
+        <v>6.013542681096353</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>65.54292880850015</v>
+        <v>61.63136994353849</v>
       </c>
       <c r="G6">
-        <v>3.82658146602233</v>
+        <v>2.180569496062305</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.39865567605124</v>
+        <v>6.940904768049895</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.46326727457559</v>
+        <v>5.874566494688777</v>
       </c>
       <c r="M6">
-        <v>21.09919455617031</v>
+        <v>12.19791256586277</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.13768963149429</v>
+        <v>19.66381333925103</v>
       </c>
       <c r="C7">
-        <v>8.000101627940301</v>
+        <v>10.88775137726524</v>
       </c>
       <c r="D7">
-        <v>4.404311492913549</v>
+        <v>6.13055590612862</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>65.75874166512615</v>
+        <v>62.50901167684448</v>
       </c>
       <c r="G7">
-        <v>3.825071784415504</v>
+        <v>2.176253722285996</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.40083920837755</v>
+        <v>6.948375830447598</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.45030257797431</v>
+        <v>5.857428601150641</v>
       </c>
       <c r="M7">
-        <v>21.08116429780328</v>
+        <v>12.27588208085763</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.22614024111531</v>
+        <v>21.13827819155401</v>
       </c>
       <c r="C8">
-        <v>8.292056867682833</v>
+        <v>12.11227777859676</v>
       </c>
       <c r="D8">
-        <v>4.615553783183287</v>
+        <v>6.632612117481081</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>66.71854689545448</v>
+        <v>66.3413597306953</v>
       </c>
       <c r="G8">
-        <v>3.818741568744097</v>
+        <v>2.157568417501455</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.41036406533936</v>
+        <v>6.982548076111556</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.39687982169001</v>
+        <v>5.789230326886088</v>
       </c>
       <c r="M8">
-        <v>21.01326058184637</v>
+        <v>12.64416124364086</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.47488899631536</v>
+        <v>23.9923055835531</v>
       </c>
       <c r="C9">
-        <v>8.874520544536379</v>
+        <v>14.32842140800877</v>
       </c>
       <c r="D9">
-        <v>5.004053319458113</v>
+        <v>7.566431217899962</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>68.61893146090921</v>
+        <v>73.69960829468441</v>
       </c>
       <c r="G9">
-        <v>3.807509084499478</v>
+        <v>2.121848324240252</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.42867583173773</v>
+        <v>7.055419394731715</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.30567295429397</v>
+        <v>5.683652208567235</v>
       </c>
       <c r="M9">
-        <v>20.92217611736386</v>
+        <v>13.45580767427322</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.70247326745446</v>
+        <v>26.12625940709981</v>
       </c>
       <c r="C10">
-        <v>9.30192017593766</v>
+        <v>15.86042018304375</v>
       </c>
       <c r="D10">
-        <v>5.271735401615669</v>
+        <v>8.224480029690316</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>70.01841300489924</v>
+        <v>79.01808395457215</v>
       </c>
       <c r="G10">
-        <v>3.799966095488647</v>
+        <v>2.095749512701874</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.44193588648783</v>
+        <v>7.114262748828349</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.24687344269521</v>
+        <v>5.624887954387222</v>
       </c>
       <c r="M10">
-        <v>20.88103898717566</v>
+        <v>14.11020395305852</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.81544633494963</v>
+        <v>27.18198985112584</v>
       </c>
       <c r="C11">
-        <v>9.494975631217434</v>
+        <v>16.54095800238872</v>
       </c>
       <c r="D11">
-        <v>5.389302274004</v>
+        <v>8.518908864550664</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>70.6541117059277</v>
+        <v>81.42486990518304</v>
       </c>
       <c r="G11">
-        <v>3.796686409461179</v>
+        <v>2.083794832367645</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.44793264035041</v>
+        <v>7.142655578960627</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.221895683884</v>
+        <v>5.60267673192366</v>
       </c>
       <c r="M11">
-        <v>20.86794497122417</v>
+        <v>14.42177426651518</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.85955493891611</v>
+        <v>27.57953308634494</v>
       </c>
       <c r="C12">
-        <v>9.567788852125776</v>
+        <v>16.79675579766255</v>
       </c>
       <c r="D12">
-        <v>5.433192509071864</v>
+        <v>8.629828573559237</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>70.89456022584753</v>
+        <v>82.33530984727886</v>
       </c>
       <c r="G12">
-        <v>3.795466111174929</v>
+        <v>2.079244644243004</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.45019888203991</v>
+        <v>7.153688793036959</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.2126910050112</v>
+        <v>5.594960013457897</v>
       </c>
       <c r="M12">
-        <v>20.86379584135911</v>
+        <v>14.54190622748804</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.84999679596218</v>
+        <v>27.4940056276887</v>
       </c>
       <c r="C13">
-        <v>9.552121676083067</v>
+        <v>16.7417420004489</v>
       </c>
       <c r="D13">
-        <v>5.423768341536711</v>
+        <v>8.605963053940856</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>70.84278989653447</v>
+        <v>82.13925593001846</v>
       </c>
       <c r="G13">
-        <v>3.795727964015219</v>
+        <v>2.08022584441964</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.44971100324435</v>
+        <v>7.151299218595096</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.21466211843653</v>
+        <v>5.596590293214752</v>
       </c>
       <c r="M13">
-        <v>20.86465342188553</v>
+        <v>14.51593523205165</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.81904873882218</v>
+        <v>27.21473765235202</v>
       </c>
       <c r="C14">
-        <v>9.500972403569049</v>
+        <v>16.56203801535296</v>
       </c>
       <c r="D14">
-        <v>5.392925905835185</v>
+        <v>8.528044910005681</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>70.67389990813852</v>
+        <v>81.49978552751523</v>
       </c>
       <c r="G14">
-        <v>3.796585581855537</v>
+        <v>2.083421023360298</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.44811917483536</v>
+        <v>7.143557341951516</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.2211333258881</v>
+        <v>5.602027682141101</v>
       </c>
       <c r="M14">
-        <v>20.86758739480001</v>
+        <v>14.43161352437388</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.80026419254239</v>
+        <v>27.04340271258562</v>
       </c>
       <c r="C15">
-        <v>9.46960118080082</v>
+        <v>16.45173040166738</v>
       </c>
       <c r="D15">
-        <v>5.373951308472477</v>
+        <v>8.480247598388525</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>70.57040966515444</v>
+        <v>81.10799741488491</v>
       </c>
       <c r="G15">
-        <v>3.797113711942109</v>
+        <v>2.085374767383636</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.4471435493103</v>
+        <v>7.138853441758528</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.22513016545976</v>
+        <v>5.605450073864618</v>
       </c>
       <c r="M15">
-        <v>20.86948996109857</v>
+        <v>14.38024896776646</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.69527775663207</v>
+        <v>26.05692286373579</v>
       </c>
       <c r="C16">
-        <v>9.289267611669947</v>
+        <v>15.81565245340437</v>
       </c>
       <c r="D16">
-        <v>5.263965307835576</v>
+        <v>8.205150018268681</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>69.97683759819768</v>
+        <v>78.86060730593366</v>
       </c>
       <c r="G16">
-        <v>3.800183468696493</v>
+        <v>2.096528196240029</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.44154331486716</v>
+        <v>7.112443801724526</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.24854136091173</v>
+        <v>5.626434093495494</v>
       </c>
       <c r="M16">
-        <v>20.88200790249292</v>
+        <v>14.09013325483632</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.63327041175279</v>
+        <v>25.46469673429843</v>
       </c>
       <c r="C17">
-        <v>9.178217182755082</v>
+        <v>15.42154016841283</v>
       </c>
       <c r="D17">
-        <v>5.195396832946585</v>
+        <v>8.0352104888185</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>69.61235947637782</v>
+        <v>77.47919077972163</v>
       </c>
       <c r="G17">
-        <v>3.802105393918765</v>
+        <v>2.103341910751967</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.43809904859986</v>
+        <v>7.096689923153809</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.2633562977504</v>
+        <v>5.640494260439681</v>
       </c>
       <c r="M17">
-        <v>20.89112751820399</v>
+        <v>13.91580495942433</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.59849629561436</v>
+        <v>25.1544246375944</v>
       </c>
       <c r="C18">
-        <v>9.114220102415221</v>
+        <v>15.19328496014801</v>
       </c>
       <c r="D18">
-        <v>5.155563747412704</v>
+        <v>7.936992652538735</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>69.40264198308942</v>
+        <v>76.68338077200431</v>
       </c>
       <c r="G18">
-        <v>3.803225118793653</v>
+        <v>2.107254028895532</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.4361146453289</v>
+        <v>7.08777832191786</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.27204414201015</v>
+        <v>5.649003813387528</v>
       </c>
       <c r="M18">
-        <v>20.89690176179224</v>
+        <v>13.81683106636858</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.58687624916565</v>
+        <v>25.04930800619401</v>
       </c>
       <c r="C19">
-        <v>9.092533569170371</v>
+        <v>15.11571920608088</v>
       </c>
       <c r="D19">
-        <v>5.142010053642309</v>
+        <v>7.903653011214224</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>69.33162599611418</v>
+        <v>76.41369627120577</v>
       </c>
       <c r="G19">
-        <v>3.803606696631688</v>
+        <v>2.108577726738396</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.43544217014154</v>
+        <v>7.084785379760435</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.27501434745328</v>
+        <v>5.651956337285563</v>
       </c>
       <c r="M19">
-        <v>20.89894761419858</v>
+        <v>13.78353881110079</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.63977920553288</v>
+        <v>25.52209256772078</v>
       </c>
       <c r="C20">
-        <v>9.190052222228305</v>
+        <v>15.46365381403657</v>
       </c>
       <c r="D20">
-        <v>5.202737068354421</v>
+        <v>8.05334895010076</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>69.65116804304635</v>
+        <v>77.62636965120898</v>
       </c>
       <c r="G20">
-        <v>3.801899324488593</v>
+        <v>2.102617374768132</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.43846604012029</v>
+        <v>7.098351146281513</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.2617619765657</v>
+        <v>5.638953505525933</v>
       </c>
       <c r="M20">
-        <v>20.89010197230859</v>
+        <v>13.93422752214345</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.82810313905123</v>
+        <v>27.2968217481097</v>
       </c>
       <c r="C21">
-        <v>9.516004850191916</v>
+        <v>16.61486922829658</v>
       </c>
       <c r="D21">
-        <v>5.40200235535926</v>
+        <v>8.55094569764638</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>70.72351563129972</v>
+        <v>81.68763110717265</v>
       </c>
       <c r="G21">
-        <v>3.796333092475381</v>
+        <v>2.082483252724697</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.44858685441439</v>
+        <v>7.145823255180759</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.21922569155366</v>
+        <v>5.600411362064878</v>
       </c>
       <c r="M21">
-        <v>20.86670364408194</v>
+        <v>14.45632113492504</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.95890950077262</v>
+        <v>28.45037815498227</v>
       </c>
       <c r="C22">
-        <v>9.727289057722478</v>
+        <v>17.35640762578047</v>
       </c>
       <c r="D22">
-        <v>5.528553312915242</v>
+        <v>8.87289639388719</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>71.42267875862291</v>
+        <v>84.33694902303631</v>
       </c>
       <c r="G22">
-        <v>3.792821342570813</v>
+        <v>2.069182294611207</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.45517480944017</v>
+        <v>7.178518542652708</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.19290511040212</v>
+        <v>5.579294042183169</v>
       </c>
       <c r="M22">
-        <v>20.85612894440244</v>
+        <v>14.87965368518564</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.88839932891142</v>
+        <v>27.83567544287607</v>
       </c>
       <c r="C23">
-        <v>9.61471183610475</v>
+        <v>16.96145760066167</v>
       </c>
       <c r="D23">
-        <v>5.461355005830836</v>
+        <v>8.701309606180725</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>71.04972239975356</v>
+        <v>82.9230446637759</v>
       </c>
       <c r="G23">
-        <v>3.794684144046796</v>
+        <v>2.076298595097306</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.45166096748518</v>
+        <v>7.160897496498656</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.20681777767963</v>
+        <v>5.590175630198471</v>
       </c>
       <c r="M23">
-        <v>20.86134090705263</v>
+        <v>14.62009225448166</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.63683385303719</v>
+        <v>25.49614538752603</v>
       </c>
       <c r="C24">
-        <v>9.184702069197327</v>
+        <v>15.44461948407447</v>
       </c>
       <c r="D24">
-        <v>5.199419829738599</v>
+        <v>8.045150172673122</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>69.63362322170194</v>
+        <v>77.55983517498953</v>
       </c>
       <c r="G24">
-        <v>3.801992442415826</v>
+        <v>2.102944952783561</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.43830013652401</v>
+        <v>7.097599657538738</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.2624822379247</v>
+        <v>5.639648756638945</v>
       </c>
       <c r="M24">
-        <v>20.89056396696354</v>
+        <v>13.92589479951262</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.39963299128502</v>
+        <v>23.22475041701389</v>
       </c>
       <c r="C25">
-        <v>8.716589762319558</v>
+        <v>13.74713478811282</v>
       </c>
       <c r="D25">
-        <v>4.9019378594465</v>
+        <v>7.319028846821755</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.10368316137379</v>
+        <v>71.72573294717036</v>
       </c>
       <c r="G25">
-        <v>3.810422413716425</v>
+        <v>2.13145233930555</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.42375816753531</v>
+        <v>7.034914825570199</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.32890123517879</v>
+        <v>5.709043942636607</v>
       </c>
       <c r="M25">
-        <v>20.94229748936642</v>
+        <v>13.22636121684453</v>
       </c>
       <c r="N25">
         <v>0</v>
